--- a/Code/Summary Statistics Table_Figure_4.xlsx
+++ b/Code/Summary Statistics Table_Figure_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,9 +486,7 @@
       <c r="E2" t="n">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.36</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>0</v>
       </c>
@@ -507,9 +505,7 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.48</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -517,22 +513,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EDUC</t>
+          <t>COWMAIN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>0</v>
       </c>
@@ -540,22 +532,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESTSIZE</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.05</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>0</v>
       </c>
@@ -563,24 +553,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HRLYEARN</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>35.21</v>
-      </c>
-      <c r="C6" t="n">
-        <v>32</v>
-      </c>
+          <t>EFAMTYPE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>5.77</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>79.37</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14.37</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>0</v>
       </c>
@@ -588,20 +572,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IMMIG</t>
+          <t>FIRMSIZE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.42</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>0</v>
       </c>
@@ -609,19 +593,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MARSTAT</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>HRLYEARN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38.46</v>
+      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>43.75</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>38.59</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -630,20 +618,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NAICS_21</t>
+          <t>IMMIG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>0</v>
       </c>
@@ -651,20 +637,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PROV</t>
+          <t>MARSTAT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>59</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14.39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>0</v>
       </c>
@@ -672,20 +656,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SEX</t>
+          <t>NAICS_21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>0</v>
       </c>
@@ -693,25 +675,88 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>PROV</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>59</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TENURE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>106.66</v>
+      </c>
+      <c r="C14" t="n">
+        <v>83</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>240</v>
+      </c>
+      <c r="F14" t="n">
+        <v>106.66</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>UHRSMAIN</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="B15" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99</v>
+      </c>
+      <c r="F15" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
